--- a/Assembly Files/USB_Control_FPD_Linkv2_BOM.xlsx
+++ b/Assembly Files/USB_Control_FPD_Linkv2_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\Miniscope_USB_Control_FPD_Linkv2\Project Outputs for Miniscope_USB_Control\Productionv2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\Miniscope_DAQ_PCB\Assembly Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="268">
   <si>
     <t>Comment</t>
   </si>
@@ -302,15 +302,9 @@
     <t>Through-hole Parts</t>
   </si>
   <si>
-    <t>SSMCX Edge Mount</t>
-  </si>
-  <si>
     <t>J2</t>
   </si>
   <si>
-    <t>J6</t>
-  </si>
-  <si>
     <t>Ferrite</t>
   </si>
   <si>
@@ -392,9 +386,6 @@
     <t>LED</t>
   </si>
   <si>
-    <t>U11, U12, U13</t>
-  </si>
-  <si>
     <t>NPN Trans</t>
   </si>
   <si>
@@ -815,12 +806,6 @@
     <t>CONN PWR JACK 2.5X6.3MM SMT</t>
   </si>
   <si>
-    <t>WM5398-ND</t>
-  </si>
-  <si>
-    <t>CONN SSMCX JACK 50 OHM EDGE MNT</t>
-  </si>
-  <si>
     <t>CT2184LPST-ND</t>
   </si>
   <si>
@@ -840,6 +825,9 @@
   </si>
   <si>
     <t>C21, C26, C77</t>
+  </si>
+  <si>
+    <t>U11, U12, U14</t>
   </si>
 </sst>
 </file>
@@ -1267,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,8 +1335,8 @@
       </c>
       <c r="I3" s="5"/>
       <c r="J3">
-        <f>SUM(H3:H59)</f>
-        <v>179</v>
+        <f>SUM(H3:H58)</f>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1356,13 +1344,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>41</v>
@@ -1382,16 +1370,16 @@
         <v>9</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>75</v>
@@ -1408,16 +1396,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>75</v>
@@ -1434,13 +1422,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>40</v>
@@ -1460,13 +1448,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>36</v>
@@ -1486,10 +1474,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>30</v>
@@ -1512,13 +1500,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>39</v>
@@ -1538,13 +1526,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>37</v>
@@ -1564,13 +1552,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>35</v>
@@ -1590,19 +1578,19 @@
         <v>31</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="2">
@@ -1616,19 +1604,19 @@
         <v>32</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="2">
@@ -1664,7 +1652,7 @@
         <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>74</v>
@@ -1681,13 +1669,13 @@
         <v>58</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>57</v>
@@ -1707,13 +1695,13 @@
         <v>51</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>47</v>
@@ -1733,13 +1721,13 @@
         <v>69</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>70</v>
@@ -1759,16 +1747,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>75</v>
@@ -1785,13 +1773,13 @@
         <v>71</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>72</v>
@@ -1811,13 +1799,13 @@
         <v>42</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>46</v>
@@ -1837,13 +1825,13 @@
         <v>60</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>61</v>
@@ -1863,13 +1851,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>73</v>
@@ -1889,13 +1877,13 @@
         <v>66</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>67</v>
@@ -1915,13 +1903,13 @@
         <v>43</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>48</v>
@@ -1941,13 +1929,13 @@
         <v>62</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>63</v>
@@ -1967,13 +1955,13 @@
         <v>44</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>45</v>
@@ -1993,13 +1981,13 @@
         <v>19</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>59</v>
@@ -2019,13 +2007,13 @@
         <v>55</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>56</v>
@@ -2045,13 +2033,13 @@
         <v>64</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>65</v>
@@ -2071,13 +2059,13 @@
         <v>20</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>68</v>
@@ -2097,13 +2085,13 @@
         <v>53</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>54</v>
@@ -2120,7 +2108,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -2133,22 +2121,22 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="2">
@@ -2158,19 +2146,19 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>74</v>
@@ -2183,22 +2171,22 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="2">
@@ -2208,22 +2196,22 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="2">
@@ -2233,22 +2221,22 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="2">
@@ -2259,22 +2247,22 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="2">
@@ -2299,10 +2287,10 @@
         <v>23</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>28</v>
@@ -2322,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>84</v>
@@ -2342,7 +2330,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -2355,22 +2343,22 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="2">
@@ -2380,22 +2368,22 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="2">
@@ -2405,22 +2393,22 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="2">
@@ -2430,22 +2418,22 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="2">
@@ -2455,22 +2443,22 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="2">
@@ -2480,22 +2468,22 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D50" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="2">
@@ -2505,22 +2493,22 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="2">
@@ -2530,22 +2518,22 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D52" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="2">
@@ -2571,13 +2559,13 @@
         <v>89</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>13</v>
@@ -2594,16 +2582,16 @@
         <v>90</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -2613,58 +2601,60 @@
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="D56" s="10">
-        <v>734154670</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="2">
-        <v>1</v>
-      </c>
+      <c r="A56" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
       <c r="I56" s="4"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="2">
+        <v>3</v>
+      </c>
       <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>266</v>
+        <v>119</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>263</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F58" s="1"/>
+        <v>267</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G58" s="1"/>
       <c r="H58" s="2">
         <v>3</v>
@@ -2672,46 +2662,32 @@
       <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="2">
-        <v>3</v>
-      </c>
+      <c r="A59" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="2"/>
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="9"/>
+      <c r="B61" s="1"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="1"/>
@@ -2732,31 +2708,30 @@
       <c r="I62" s="4"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="4"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="7"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="11"/>
       <c r="E65" s="7"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -2767,7 +2742,7 @@
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="11"/>
-      <c r="E66" s="7"/>
+      <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -2775,22 +2750,12 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2798,9 +2763,9 @@
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A59:H59"/>
     <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A56:H56"/>
     <mergeCell ref="A44:H44"/>
   </mergeCells>
   <hyperlinks>
@@ -2896,14 +2861,12 @@
     <hyperlink ref="C54" r:id="rId90" display="http://www.digikey.com/product-detail/en/897-10-010-40-300002/ED1128CT-ND/3821395"/>
     <hyperlink ref="D55" r:id="rId91" display="http://www.digikey.com/product-detail/en/PJ-036BH-SMT-TR/CP-036BHPJCT-ND/1530996"/>
     <hyperlink ref="C55" r:id="rId92" display="http://www.digikey.com/product-detail/en/PJ-036BH-SMT-TR/CP-036BHPJCT-ND/1530996"/>
-    <hyperlink ref="D56" r:id="rId93" display="http://www.digikey.com/product-detail/en/0734154670/WM5398-ND/2755914"/>
-    <hyperlink ref="C56" r:id="rId94" display="http://www.digikey.com/product-detail/en/0734154670/WM5398-ND/2755914"/>
-    <hyperlink ref="D58" r:id="rId95" display="http://www.digikey.com/product-detail/en/218-4LPST/CT2184LPST-ND/267320"/>
-    <hyperlink ref="C58" r:id="rId96" display="http://www.digikey.com/product-detail/en/218-4LPST/CT2184LPST-ND/267320"/>
-    <hyperlink ref="D59" r:id="rId97" display="http://www.digikey.com/product-detail/en/LTST-C191KGKT/160-1446-1-ND/386834"/>
-    <hyperlink ref="C59" r:id="rId98" display="http://www.digikey.com/product-detail/en/LTST-C191KGKT/160-1446-1-ND/386834"/>
+    <hyperlink ref="D57" r:id="rId93" display="http://www.digikey.com/product-detail/en/218-4LPST/CT2184LPST-ND/267320"/>
+    <hyperlink ref="C57" r:id="rId94" display="http://www.digikey.com/product-detail/en/218-4LPST/CT2184LPST-ND/267320"/>
+    <hyperlink ref="D58" r:id="rId95" display="http://www.digikey.com/product-detail/en/LTST-C191KGKT/160-1446-1-ND/386834"/>
+    <hyperlink ref="C58" r:id="rId96" display="http://www.digikey.com/product-detail/en/LTST-C191KGKT/160-1446-1-ND/386834"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId99"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId97"/>
 </worksheet>
 </file>